--- a/Data Extraction and NLP/Output Data Structure.xlsx
+++ b/Data Extraction and NLP/Output Data Structure.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -522,43 +522,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9993</v>
+        <v>0.9992</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03291925463793835</v>
+        <v>0.03443957418006288</v>
       </c>
       <c r="G2" t="n">
-        <v>20.125</v>
+        <v>19.24096385542169</v>
       </c>
       <c r="H2" t="n">
-        <v>14.78260869565217</v>
+        <v>14.46462116468378</v>
       </c>
       <c r="I2" t="n">
-        <v>13.96304347826087</v>
+        <v>13.48223400804219</v>
       </c>
       <c r="J2" t="n">
-        <v>20.125</v>
+        <v>19.24096385542169</v>
       </c>
       <c r="K2" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L2" t="n">
-        <v>1610</v>
+        <v>1597</v>
       </c>
       <c r="M2" t="n">
-        <v>1.608074534161491</v>
+        <v>1.597996242955542</v>
       </c>
       <c r="N2" t="n">
         <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>4.888185654008439</v>
+        <v>4.843816254416961</v>
       </c>
     </row>
     <row r="3">
@@ -573,43 +573,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995000000000001</v>
+        <v>0.9996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.032074495586097</v>
+        <v>0.03267634853076953</v>
       </c>
       <c r="G3" t="n">
-        <v>23.28915662650602</v>
+        <v>22.95238095238095</v>
       </c>
       <c r="H3" t="n">
-        <v>22.50387997930678</v>
+        <v>22.76970954356846</v>
       </c>
       <c r="I3" t="n">
-        <v>18.31721464232512</v>
+        <v>18.28883619837977</v>
       </c>
       <c r="J3" t="n">
-        <v>23.28915662650602</v>
+        <v>22.95238095238095</v>
       </c>
       <c r="K3" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L3" t="n">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="M3" t="n">
-        <v>1.848422141748577</v>
+        <v>1.846473029045643</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>5.679471788715486</v>
+        <v>5.665066026410564</v>
       </c>
     </row>
     <row r="4">
@@ -630,37 +630,37 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.9981</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0326615705123964</v>
+        <v>0.03230240547608082</v>
       </c>
       <c r="G4" t="n">
-        <v>24.81034482758621</v>
+        <v>24.66101694915254</v>
       </c>
       <c r="H4" t="n">
-        <v>30.02084781097984</v>
+        <v>29.62199312714777</v>
       </c>
       <c r="I4" t="n">
-        <v>21.93247705542642</v>
+        <v>21.71320403052013</v>
       </c>
       <c r="J4" t="n">
-        <v>24.81034482758621</v>
+        <v>24.66101694915254</v>
       </c>
       <c r="K4" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>1439</v>
+        <v>1455</v>
       </c>
       <c r="M4" t="n">
-        <v>2.055594162612925</v>
+        <v>2.036426116838488</v>
       </c>
       <c r="N4" t="n">
         <v>22</v>
       </c>
       <c r="O4" t="n">
-        <v>6.252589641434263</v>
+        <v>6.205209155485399</v>
       </c>
     </row>
     <row r="5">
@@ -675,43 +675,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9913999999999999</v>
+        <v>-0.9918</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03328710122518231</v>
+        <v>0.03479471117968357</v>
       </c>
       <c r="G5" t="n">
-        <v>25.75</v>
+        <v>25.21052631578947</v>
       </c>
       <c r="H5" t="n">
-        <v>28.08599167822469</v>
+        <v>28.04453723034099</v>
       </c>
       <c r="I5" t="n">
-        <v>21.53439667128988</v>
+        <v>21.30202541845219</v>
       </c>
       <c r="J5" t="n">
-        <v>25.75</v>
+        <v>25.21052631578947</v>
       </c>
       <c r="K5" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L5" t="n">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="M5" t="n">
-        <v>1.947988904299584</v>
+        <v>1.953375086986778</v>
       </c>
       <c r="N5" t="n">
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>6.096696212731668</v>
+        <v>6.071600965406275</v>
       </c>
     </row>
     <row r="6">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -735,34 +735,34 @@
         <v>0.9972</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02986611737397928</v>
+        <v>0.03027245203807018</v>
       </c>
       <c r="G6" t="n">
-        <v>22.58139534883721</v>
+        <v>22.52272727272727</v>
       </c>
       <c r="H6" t="n">
-        <v>21.93614830072091</v>
+        <v>22.19979818365287</v>
       </c>
       <c r="I6" t="n">
-        <v>17.80701745982325</v>
+        <v>17.88901018255206</v>
       </c>
       <c r="J6" t="n">
-        <v>22.58139534883721</v>
+        <v>22.52272727272727</v>
       </c>
       <c r="K6" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L6" t="n">
-        <v>971</v>
+        <v>991</v>
       </c>
       <c r="M6" t="n">
-        <v>1.791967044284243</v>
+        <v>1.800201816347124</v>
       </c>
       <c r="N6" t="n">
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>5.668591224018476</v>
+        <v>5.703071672354949</v>
       </c>
     </row>
     <row r="7">
@@ -786,34 +786,34 @@
         <v>0.9998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02970297028424324</v>
+        <v>0.02969018931596808</v>
       </c>
       <c r="G7" t="n">
-        <v>24.97849462365591</v>
+        <v>24.98924731182796</v>
       </c>
       <c r="H7" t="n">
-        <v>27.16315109771847</v>
+        <v>27.15146299483649</v>
       </c>
       <c r="I7" t="n">
-        <v>20.85665828854975</v>
+        <v>20.85628412266578</v>
       </c>
       <c r="J7" t="n">
-        <v>24.97849462365591</v>
+        <v>24.98924731182796</v>
       </c>
       <c r="K7" t="n">
         <v>631</v>
       </c>
       <c r="L7" t="n">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="M7" t="n">
-        <v>1.950064571674559</v>
+        <v>1.948364888123924</v>
       </c>
       <c r="N7" t="n">
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>6.094798249878464</v>
+        <v>6.089494163424124</v>
       </c>
     </row>
     <row r="8">
@@ -834,37 +834,37 @@
         <v>39</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9989</v>
+        <v>-0.9987</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03529411762629758</v>
+        <v>0.03516998825605511</v>
       </c>
       <c r="G8" t="n">
-        <v>21.25</v>
+        <v>21.325</v>
       </c>
       <c r="H8" t="n">
-        <v>21.52941176470588</v>
+        <v>21.98124267291911</v>
       </c>
       <c r="I8" t="n">
-        <v>17.11176470588235</v>
+        <v>17.32249706916765</v>
       </c>
       <c r="J8" t="n">
-        <v>21.25</v>
+        <v>21.325</v>
       </c>
       <c r="K8" t="n">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="L8" t="n">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="M8" t="n">
-        <v>1.810588235294118</v>
+        <v>1.825322391559203</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>5.45514950166113</v>
+        <v>5.495692511597084</v>
       </c>
     </row>
     <row r="9">
@@ -879,43 +879,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.996</v>
+        <v>0.9948</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02439024388040628</v>
+        <v>0.02506714411363729</v>
       </c>
       <c r="G9" t="n">
-        <v>22.14</v>
+        <v>21.48076923076923</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53297199638663</v>
+        <v>30.52820053715309</v>
       </c>
       <c r="I9" t="n">
-        <v>21.06918879855466</v>
+        <v>20.80358790716893</v>
       </c>
       <c r="J9" t="n">
-        <v>22.14</v>
+        <v>21.48076923076923</v>
       </c>
       <c r="K9" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L9" t="n">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="M9" t="n">
-        <v>2.070460704607046</v>
+        <v>2.068039391226499</v>
       </c>
       <c r="N9" t="n">
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>6.365145228215767</v>
+        <v>6.384536082474227</v>
       </c>
     </row>
     <row r="10">
@@ -933,40 +933,40 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9946</v>
+        <v>0.9943</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0351270552801741</v>
+        <v>0.0345345345086077</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9344262295082</v>
+        <v>22.2</v>
       </c>
       <c r="H10" t="n">
-        <v>30.94170403587444</v>
+        <v>30.85585585585586</v>
       </c>
       <c r="I10" t="n">
-        <v>21.15045210615306</v>
+        <v>21.22234234234234</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9344262295082</v>
+        <v>22.2</v>
       </c>
       <c r="K10" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L10" t="n">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="M10" t="n">
-        <v>2.04932735426009</v>
+        <v>2.045795795795796</v>
       </c>
       <c r="N10" t="n">
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>6.277056277056277</v>
+        <v>6.263888888888889</v>
       </c>
     </row>
     <row r="11">
@@ -984,40 +984,40 @@
         <v>104</v>
       </c>
       <c r="D11" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9893</v>
+        <v>0.9933</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04505119452899858</v>
+        <v>0.04498744004453358</v>
       </c>
       <c r="G11" t="n">
-        <v>18.08641975308642</v>
+        <v>18.09504132231405</v>
       </c>
       <c r="H11" t="n">
-        <v>24.84641638225256</v>
+        <v>25.0057090659968</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17313445413559</v>
+        <v>17.24030015532434</v>
       </c>
       <c r="J11" t="n">
-        <v>18.08641975308642</v>
+        <v>18.09504132231405</v>
       </c>
       <c r="K11" t="n">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="L11" t="n">
-        <v>4395</v>
+        <v>4379</v>
       </c>
       <c r="M11" t="n">
-        <v>1.843230944254835</v>
+        <v>1.846540306005937</v>
       </c>
       <c r="N11" t="n">
         <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>5.530606995884773</v>
+        <v>5.532249742002064</v>
       </c>
     </row>
     <row r="12">
@@ -1038,37 +1038,37 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9993</v>
+        <v>0.9991</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02941176468986287</v>
+        <v>0.02954048138427763</v>
       </c>
       <c r="G12" t="n">
-        <v>25.5</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="H12" t="n">
-        <v>29.03050108932462</v>
+        <v>29.04814004376368</v>
       </c>
       <c r="I12" t="n">
-        <v>21.81220043572985</v>
+        <v>21.77481157306103</v>
       </c>
       <c r="J12" t="n">
-        <v>25.5</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="K12" t="n">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L12" t="n">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="M12" t="n">
-        <v>1.969498910675381</v>
+        <v>1.977024070021882</v>
       </c>
       <c r="N12" t="n">
         <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>5.970678069639584</v>
+        <v>5.976729944886712</v>
       </c>
     </row>
     <row r="13">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -1092,34 +1092,34 @@
         <v>0.9995000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03328438569100128</v>
+        <v>0.03338171261084581</v>
       </c>
       <c r="G13" t="n">
-        <v>24.91463414634146</v>
+        <v>24.60714285714286</v>
       </c>
       <c r="H13" t="n">
-        <v>26.97014194811552</v>
+        <v>26.56023222060958</v>
       </c>
       <c r="I13" t="n">
-        <v>20.75391043778279</v>
+        <v>20.46695003110098</v>
       </c>
       <c r="J13" t="n">
-        <v>24.91463414634146</v>
+        <v>24.60714285714286</v>
       </c>
       <c r="K13" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L13" t="n">
-        <v>2043</v>
+        <v>2067</v>
       </c>
       <c r="M13" t="n">
-        <v>1.930494371023005</v>
+        <v>1.919690372520561</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>5.765344921238458</v>
+        <v>5.743025751072961</v>
       </c>
     </row>
     <row r="14">
@@ -1134,43 +1134,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9988</v>
+        <v>0.999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02601809951807907</v>
+        <v>0.02696629210453226</v>
       </c>
       <c r="G14" t="n">
-        <v>32.74074074074074</v>
+        <v>30.68965517241379</v>
       </c>
       <c r="H14" t="n">
-        <v>26.69683257918552</v>
+        <v>27.07865168539326</v>
       </c>
       <c r="I14" t="n">
-        <v>23.7750293279705</v>
+        <v>23.10732274312282</v>
       </c>
       <c r="J14" t="n">
-        <v>32.74074074074074</v>
+        <v>30.68965517241379</v>
       </c>
       <c r="K14" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L14" t="n">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="M14" t="n">
-        <v>1.867647058823529</v>
+        <v>1.873033707865168</v>
       </c>
       <c r="N14" t="n">
         <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>5.511056511056511</v>
+        <v>5.515262515262515</v>
       </c>
     </row>
     <row r="15">
@@ -1242,37 +1242,37 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997</v>
+        <v>0.9998</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02946708462102377</v>
+        <v>0.02943018157205373</v>
       </c>
       <c r="G16" t="n">
-        <v>25.31746031746032</v>
+        <v>25.34920634920635</v>
       </c>
       <c r="H16" t="n">
-        <v>23.2601880877743</v>
+        <v>23.73199749530369</v>
       </c>
       <c r="I16" t="n">
-        <v>19.43105936209385</v>
+        <v>19.63248153780402</v>
       </c>
       <c r="J16" t="n">
-        <v>25.31746031746032</v>
+        <v>25.34920634920635</v>
       </c>
       <c r="K16" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L16" t="n">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="M16" t="n">
-        <v>1.810658307210031</v>
+        <v>1.815904821540388</v>
       </c>
       <c r="N16" t="n">
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>5.596515679442509</v>
+        <v>5.607665505226481</v>
       </c>
     </row>
     <row r="17">
@@ -1296,34 +1296,34 @@
         <v>0.9998</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02937499998164062</v>
+        <v>0.02982233500645791</v>
       </c>
       <c r="G17" t="n">
-        <v>25</v>
+        <v>25.01587301587302</v>
       </c>
       <c r="H17" t="n">
-        <v>23.1875</v>
+        <v>23.22335025380711</v>
       </c>
       <c r="I17" t="n">
-        <v>19.275</v>
+        <v>19.29568930787205</v>
       </c>
       <c r="J17" t="n">
-        <v>25</v>
+        <v>25.01587301587302</v>
       </c>
       <c r="K17" t="n">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L17" t="n">
-        <v>1600</v>
+        <v>1576</v>
       </c>
       <c r="M17" t="n">
-        <v>1.8075</v>
+        <v>1.806472081218274</v>
       </c>
       <c r="N17" t="n">
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>5.588603196664351</v>
+        <v>5.59589525831564</v>
       </c>
     </row>
     <row r="18">
@@ -1341,40 +1341,40 @@
         <v>44</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999</v>
+        <v>0.9991</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03157894734764543</v>
+        <v>0.03100263850197715</v>
       </c>
       <c r="G18" t="n">
-        <v>22.02898550724638</v>
+        <v>22.29411764705882</v>
       </c>
       <c r="H18" t="n">
-        <v>24.47368421052632</v>
+        <v>24.67018469656992</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60106788710908</v>
+        <v>18.7857209374515</v>
       </c>
       <c r="J18" t="n">
-        <v>22.02898550724638</v>
+        <v>22.29411764705882</v>
       </c>
       <c r="K18" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L18" t="n">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="M18" t="n">
-        <v>1.848026315789474</v>
+        <v>1.854221635883905</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>5.67479674796748</v>
+        <v>5.702962962962963</v>
       </c>
     </row>
     <row r="19">
@@ -1389,43 +1389,43 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9979</v>
+        <v>0.9978</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02413793101783591</v>
+        <v>0.0243562978257785</v>
       </c>
       <c r="G19" t="n">
-        <v>30.20833333333333</v>
+        <v>30.57446808510638</v>
       </c>
       <c r="H19" t="n">
-        <v>24.3448275862069</v>
+        <v>24.4258872651357</v>
       </c>
       <c r="I19" t="n">
-        <v>21.8212643678161</v>
+        <v>22.00014214009683</v>
       </c>
       <c r="J19" t="n">
-        <v>30.20833333333333</v>
+        <v>30.57446808510638</v>
       </c>
       <c r="K19" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L19" t="n">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="M19" t="n">
-        <v>1.830344827586207</v>
+        <v>1.836464857341684</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>5.761264822134387</v>
+        <v>5.79073482428115</v>
       </c>
     </row>
     <row r="20">
@@ -1449,34 +1449,34 @@
         <v>0.9996</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03151065800208033</v>
+        <v>0.03140877596701673</v>
       </c>
       <c r="G20" t="n">
-        <v>22.02040816326531</v>
+        <v>22.09183673469388</v>
       </c>
       <c r="H20" t="n">
-        <v>24.00370713623726</v>
+        <v>24.29561200923787</v>
       </c>
       <c r="I20" t="n">
-        <v>18.40964611980102</v>
+        <v>18.5549794975727</v>
       </c>
       <c r="J20" t="n">
-        <v>22.02040816326531</v>
+        <v>22.09183673469388</v>
       </c>
       <c r="K20" t="n">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="L20" t="n">
-        <v>2158</v>
+        <v>2165</v>
       </c>
       <c r="M20" t="n">
-        <v>1.778962001853568</v>
+        <v>1.783833718244804</v>
       </c>
       <c r="N20" t="n">
         <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>5.526949241234956</v>
+        <v>5.541514360313316</v>
       </c>
     </row>
     <row r="21">
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8633999999999999</v>
+        <v>0.9404</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02700729925035963</v>
+        <v>0.0285296268993931</v>
       </c>
       <c r="G22" t="n">
-        <v>25.84905660377358</v>
+        <v>25.31481481481481</v>
       </c>
       <c r="H22" t="n">
-        <v>25.4014598540146</v>
+        <v>26.11558156547184</v>
       </c>
       <c r="I22" t="n">
-        <v>20.50020658311527</v>
+        <v>20.57215855211466</v>
       </c>
       <c r="J22" t="n">
-        <v>25.84905660377358</v>
+        <v>25.31481481481481</v>
       </c>
       <c r="K22" t="n">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L22" t="n">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="M22" t="n">
-        <v>1.888321167883212</v>
+        <v>1.899049012435991</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O22" t="n">
-        <v>5.833055091819699</v>
+        <v>5.837364470391993</v>
       </c>
     </row>
     <row r="23">
@@ -1593,43 +1593,43 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9596</v>
+        <v>0.9192</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02496328924381308</v>
+        <v>0.02356406476647413</v>
       </c>
       <c r="G23" t="n">
-        <v>20.63636363636364</v>
+        <v>21.90322580645161</v>
       </c>
       <c r="H23" t="n">
-        <v>19.23641703377386</v>
+        <v>19.58762886597938</v>
       </c>
       <c r="I23" t="n">
-        <v>15.949112268055</v>
+        <v>16.5963418689724</v>
       </c>
       <c r="J23" t="n">
-        <v>20.63636363636364</v>
+        <v>21.90322580645161</v>
       </c>
       <c r="K23" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L23" t="n">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M23" t="n">
-        <v>1.772393538913363</v>
+        <v>1.793814432989691</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>5.37228714524207</v>
+        <v>5.384742951907131</v>
       </c>
     </row>
     <row r="24">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="n">
         <v>11</v>
@@ -1653,34 +1653,34 @@
         <v>0.9994</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02678062676536716</v>
+        <v>0.02733485192065213</v>
       </c>
       <c r="G24" t="n">
-        <v>26.19402985074627</v>
+        <v>25.44927536231884</v>
       </c>
       <c r="H24" t="n">
-        <v>17.60683760683761</v>
+        <v>17.53986332574032</v>
       </c>
       <c r="I24" t="n">
-        <v>17.52034698303355</v>
+        <v>17.19565547522366</v>
       </c>
       <c r="J24" t="n">
-        <v>26.19402985074627</v>
+        <v>25.44927536231884</v>
       </c>
       <c r="K24" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L24" t="n">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="M24" t="n">
-        <v>1.718518518518519</v>
+        <v>1.718678815489749</v>
       </c>
       <c r="N24" t="n">
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>5.206218274111675</v>
+        <v>5.197218710493047</v>
       </c>
     </row>
     <row r="25">
@@ -1704,34 +1704,34 @@
         <v>0.9976</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02206736350514824</v>
+        <v>0.0217889908007007</v>
       </c>
       <c r="G25" t="n">
-        <v>35.875</v>
+        <v>34.88</v>
       </c>
       <c r="H25" t="n">
-        <v>22.99651567944251</v>
+        <v>21.90366972477064</v>
       </c>
       <c r="I25" t="n">
-        <v>23.548606271777</v>
+        <v>22.71346788990826</v>
       </c>
       <c r="J25" t="n">
-        <v>35.875</v>
+        <v>34.88</v>
       </c>
       <c r="K25" t="n">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L25" t="n">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="M25" t="n">
-        <v>1.807200929152149</v>
+        <v>1.787844036697248</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>5.534120734908137</v>
+        <v>5.504527813712807</v>
       </c>
     </row>
     <row r="26">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -1755,34 +1755,34 @@
         <v>0.9974</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01881331402401352</v>
+        <v>0.0182083029729</v>
       </c>
       <c r="G26" t="n">
-        <v>44.58064516129032</v>
+        <v>47.3448275862069</v>
       </c>
       <c r="H26" t="n">
-        <v>15.12301013024602</v>
+        <v>15.44064093226511</v>
       </c>
       <c r="I26" t="n">
-        <v>23.88146211661454</v>
+        <v>25.1141874073888</v>
       </c>
       <c r="J26" t="n">
-        <v>44.58064516129032</v>
+        <v>47.3448275862069</v>
       </c>
       <c r="K26" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L26" t="n">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="M26" t="n">
-        <v>1.6410998552822</v>
+        <v>1.654770575382374</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O26" t="n">
-        <v>5.051470588235294</v>
+        <v>5.087993421052632</v>
       </c>
     </row>
     <row r="27">
@@ -1803,37 +1803,37 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9935</v>
+        <v>0.992</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02859412229658926</v>
+        <v>0.02910266772101643</v>
       </c>
       <c r="G27" t="n">
-        <v>29.27906976744186</v>
+        <v>28.76744186046512</v>
       </c>
       <c r="H27" t="n">
-        <v>21.20730738681493</v>
+        <v>21.90784155214228</v>
       </c>
       <c r="I27" t="n">
-        <v>20.19455086170272</v>
+        <v>20.27011336504296</v>
       </c>
       <c r="J27" t="n">
-        <v>29.27906976744186</v>
+        <v>28.76744186046512</v>
       </c>
       <c r="K27" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L27" t="n">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="M27" t="n">
-        <v>1.766481334392375</v>
+        <v>1.790622473726758</v>
       </c>
       <c r="N27" t="n">
         <v>4</v>
       </c>
       <c r="O27" t="n">
-        <v>5.442713107241063</v>
+        <v>5.478743068391867</v>
       </c>
     </row>
     <row r="28">
@@ -1848,43 +1848,43 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9973</v>
+        <v>0.9979</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02280701753052221</v>
+        <v>0.02372685183812103</v>
       </c>
       <c r="G28" t="n">
-        <v>30.53571428571428</v>
+        <v>29.79310344827586</v>
       </c>
       <c r="H28" t="n">
-        <v>16.19883040935673</v>
+        <v>15.97222222222222</v>
       </c>
       <c r="I28" t="n">
-        <v>18.6938178780284</v>
+        <v>18.30613026819924</v>
       </c>
       <c r="J28" t="n">
-        <v>30.53571428571428</v>
+        <v>29.79310344827586</v>
       </c>
       <c r="K28" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L28" t="n">
-        <v>1710</v>
+        <v>1728</v>
       </c>
       <c r="M28" t="n">
-        <v>1.628654970760234</v>
+        <v>1.618055555555556</v>
       </c>
       <c r="N28" t="n">
         <v>34</v>
       </c>
       <c r="O28" t="n">
-        <v>4.888381201044386</v>
+        <v>4.866192630898513</v>
       </c>
     </row>
     <row r="29">
@@ -1905,37 +1905,37 @@
         <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9993</v>
+        <v>0.9994</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02153432030852333</v>
+        <v>0.02154882153431056</v>
       </c>
       <c r="G29" t="n">
-        <v>33.77272727272727</v>
+        <v>32.28260869565217</v>
       </c>
       <c r="H29" t="n">
-        <v>21.46702557200538</v>
+        <v>21.14478114478115</v>
       </c>
       <c r="I29" t="n">
-        <v>22.09590113789307</v>
+        <v>21.37095593617333</v>
       </c>
       <c r="J29" t="n">
-        <v>33.77272727272727</v>
+        <v>32.28260869565217</v>
       </c>
       <c r="K29" t="n">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L29" t="n">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="M29" t="n">
-        <v>1.757738896366083</v>
+        <v>1.75016835016835</v>
       </c>
       <c r="N29" t="n">
         <v>18</v>
       </c>
       <c r="O29" t="n">
-        <v>5.557263643351268</v>
+        <v>5.540478026214341</v>
       </c>
     </row>
     <row r="30">
@@ -2001,43 +2001,43 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9989</v>
+        <v>0.9988</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03284868065005456</v>
+        <v>0.03231017768857825</v>
       </c>
       <c r="G31" t="n">
-        <v>21.59302325581395</v>
+        <v>21.84705882352941</v>
       </c>
       <c r="H31" t="n">
-        <v>16.9089929994615</v>
+        <v>16.58589122240172</v>
       </c>
       <c r="I31" t="n">
-        <v>15.40080650211018</v>
+        <v>15.37318001837246</v>
       </c>
       <c r="J31" t="n">
-        <v>21.59302325581395</v>
+        <v>21.84705882352941</v>
       </c>
       <c r="K31" t="n">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L31" t="n">
         <v>1857</v>
       </c>
       <c r="M31" t="n">
-        <v>1.63274098007539</v>
+        <v>1.619816908992999</v>
       </c>
       <c r="N31" t="n">
         <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>5.119824341279799</v>
+        <v>5.086983729662077</v>
       </c>
     </row>
     <row r="32">
@@ -2052,43 +2052,43 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9942</v>
+        <v>0.9946</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03094233472529661</v>
+        <v>0.03000468821846944</v>
       </c>
       <c r="G32" t="n">
-        <v>22.69148936170213</v>
+        <v>23.7</v>
       </c>
       <c r="H32" t="n">
-        <v>24.51945616502579</v>
+        <v>24.84763244256915</v>
       </c>
       <c r="I32" t="n">
-        <v>18.88437821069116</v>
+        <v>19.41905297702766</v>
       </c>
       <c r="J32" t="n">
-        <v>22.69148936170213</v>
+        <v>23.7</v>
       </c>
       <c r="K32" t="n">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="L32" t="n">
         <v>2133</v>
       </c>
       <c r="M32" t="n">
-        <v>1.839662447257384</v>
+        <v>1.849507735583685</v>
       </c>
       <c r="N32" t="n">
         <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>5.562268150503445</v>
+        <v>5.581038135593221</v>
       </c>
     </row>
     <row r="33">
@@ -2103,43 +2103,43 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" t="n">
         <v>13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9995000000000001</v>
+        <v>0.9996</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03203883493590348</v>
+        <v>0.03158406218096012</v>
       </c>
       <c r="G33" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="H33" t="n">
-        <v>18.05825242718447</v>
+        <v>18.41593780369291</v>
       </c>
       <c r="I33" t="n">
-        <v>15.46330097087379</v>
+        <v>15.76637512147716</v>
       </c>
       <c r="J33" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="K33" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L33" t="n">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="M33" t="n">
-        <v>1.678155339805825</v>
+        <v>1.69047619047619</v>
       </c>
       <c r="N33" t="n">
         <v>27</v>
       </c>
       <c r="O33" t="n">
-        <v>5.017857142857143</v>
+        <v>5.023809523809524</v>
       </c>
     </row>
     <row r="34">
@@ -2163,34 +2163,34 @@
         <v>0.9996</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02668475801597252</v>
+        <v>0.0269529465386236</v>
       </c>
       <c r="G34" t="n">
-        <v>26.01176470588235</v>
+        <v>25.75294117647059</v>
       </c>
       <c r="H34" t="n">
-        <v>19.49344188150158</v>
+        <v>19.73503883051622</v>
       </c>
       <c r="I34" t="n">
-        <v>18.20208263495358</v>
+        <v>18.19519200279472</v>
       </c>
       <c r="J34" t="n">
-        <v>26.01176470588235</v>
+        <v>25.75294117647059</v>
       </c>
       <c r="K34" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L34" t="n">
-        <v>2211</v>
+        <v>2189</v>
       </c>
       <c r="M34" t="n">
-        <v>1.717322478516508</v>
+        <v>1.720420283234354</v>
       </c>
       <c r="N34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O34" t="n">
-        <v>5.314891416752844</v>
+        <v>5.305772230889236</v>
       </c>
     </row>
     <row r="35">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>6</v>
@@ -2214,34 +2214,34 @@
         <v>0.9996</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02157434401074382</v>
+        <v>0.02214452213161741</v>
       </c>
       <c r="G35" t="n">
-        <v>25.22058823529412</v>
+        <v>24.8695652173913</v>
       </c>
       <c r="H35" t="n">
-        <v>18.95043731778426</v>
+        <v>18.88111888111888</v>
       </c>
       <c r="I35" t="n">
-        <v>17.66841022123135</v>
+        <v>17.50027363940407</v>
       </c>
       <c r="J35" t="n">
-        <v>25.22058823529412</v>
+        <v>24.8695652173913</v>
       </c>
       <c r="K35" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L35" t="n">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="M35" t="n">
-        <v>1.684548104956268</v>
+        <v>1.685897435897436</v>
       </c>
       <c r="N35" t="n">
         <v>40</v>
       </c>
       <c r="O35" t="n">
-        <v>5.229684351914036</v>
+        <v>5.236912751677853</v>
       </c>
     </row>
     <row r="36">
@@ -2256,43 +2256,43 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
         <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9967</v>
+        <v>0.9966</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02264150941260235</v>
+        <v>0.02065727697590866</v>
       </c>
       <c r="G36" t="n">
-        <v>20.7843137254902</v>
+        <v>21.3</v>
       </c>
       <c r="H36" t="n">
-        <v>21.32075471698113</v>
+        <v>21.03286384976526</v>
       </c>
       <c r="I36" t="n">
-        <v>16.84202737698853</v>
+        <v>16.9331455399061</v>
       </c>
       <c r="J36" t="n">
-        <v>20.7843137254902</v>
+        <v>21.3</v>
       </c>
       <c r="K36" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L36" t="n">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="M36" t="n">
-        <v>1.725471698113207</v>
+        <v>1.730516431924883</v>
       </c>
       <c r="N36" t="n">
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>5.339092872570195</v>
+        <v>5.355220667384284</v>
       </c>
     </row>
     <row r="37">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D38" t="n">
         <v>3</v>
@@ -2341,34 +2341,34 @@
         <v>0.9989</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02044790650394556</v>
+        <v>0.0230105464784175</v>
       </c>
       <c r="G38" t="n">
-        <v>25.675</v>
+        <v>23.70454545454545</v>
       </c>
       <c r="H38" t="n">
-        <v>17.52677702044791</v>
+        <v>17.35378715244487</v>
       </c>
       <c r="I38" t="n">
-        <v>17.28071080817916</v>
+        <v>16.42333304279613</v>
       </c>
       <c r="J38" t="n">
-        <v>25.675</v>
+        <v>23.70454545454545</v>
       </c>
       <c r="K38" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L38" t="n">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="M38" t="n">
-        <v>1.651411879259981</v>
+        <v>1.649089165867689</v>
       </c>
       <c r="N38" t="n">
         <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>5.211111111111111</v>
+        <v>5.175956284153005</v>
       </c>
     </row>
     <row r="39">
@@ -2392,34 +2392,34 @@
         <v>0.9998</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02544625901046477</v>
+        <v>0.02554327105392937</v>
       </c>
       <c r="G39" t="n">
-        <v>30.97647058823529</v>
+        <v>30.5</v>
       </c>
       <c r="H39" t="n">
-        <v>19.71135586783137</v>
+        <v>19.78650400304994</v>
       </c>
       <c r="I39" t="n">
-        <v>20.27513058242667</v>
+        <v>20.11460160121998</v>
       </c>
       <c r="J39" t="n">
-        <v>30.97647058823529</v>
+        <v>30.5</v>
       </c>
       <c r="K39" t="n">
         <v>519</v>
       </c>
       <c r="L39" t="n">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="M39" t="n">
-        <v>1.716672996581846</v>
+        <v>1.715211589782692</v>
       </c>
       <c r="N39" t="n">
         <v>14</v>
       </c>
       <c r="O39" t="n">
-        <v>5.126068376068377</v>
+        <v>5.121679520137103</v>
       </c>
     </row>
     <row r="40">
@@ -2434,43 +2434,43 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" t="n">
         <v>40</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9981</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03353658535307295</v>
+        <v>0.03295019155825663</v>
       </c>
       <c r="G40" t="n">
-        <v>23.63963963963964</v>
+        <v>23.94495412844037</v>
       </c>
       <c r="H40" t="n">
-        <v>19.93140243902439</v>
+        <v>20.15325670498084</v>
       </c>
       <c r="I40" t="n">
-        <v>17.42841683146561</v>
+        <v>17.63928433336849</v>
       </c>
       <c r="J40" t="n">
-        <v>23.63963963963964</v>
+        <v>23.94495412844037</v>
       </c>
       <c r="K40" t="n">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L40" t="n">
-        <v>2624</v>
+        <v>2610</v>
       </c>
       <c r="M40" t="n">
-        <v>1.699314024390244</v>
+        <v>1.703448275862069</v>
       </c>
       <c r="N40" t="n">
         <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>5.37770612620912</v>
+        <v>5.392956441149212</v>
       </c>
     </row>
     <row r="41">
@@ -2485,43 +2485,43 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9991</v>
+        <v>0.999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02794022090452227</v>
+        <v>0.02804957597648429</v>
       </c>
       <c r="G41" t="n">
-        <v>24.046875</v>
+        <v>23.953125</v>
       </c>
       <c r="H41" t="n">
-        <v>25.3411306042885</v>
+        <v>25.11415525114155</v>
       </c>
       <c r="I41" t="n">
-        <v>19.7552022417154</v>
+        <v>19.62691210045662</v>
       </c>
       <c r="J41" t="n">
-        <v>24.046875</v>
+        <v>23.953125</v>
       </c>
       <c r="K41" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L41" t="n">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="M41" t="n">
-        <v>1.871345029239766</v>
+        <v>1.861709067188519</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
-        <v>5.651734104046243</v>
+        <v>5.634517766497462</v>
       </c>
     </row>
     <row r="42">
@@ -2536,43 +2536,43 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9988</v>
+        <v>0.999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03560651778177035</v>
+        <v>0.03452453056661143</v>
       </c>
       <c r="G42" t="n">
-        <v>18.82954545454545</v>
+        <v>19.19767441860465</v>
       </c>
       <c r="H42" t="n">
-        <v>19.1913095956548</v>
+        <v>19.68503937007874</v>
       </c>
       <c r="I42" t="n">
-        <v>15.2083420200801</v>
+        <v>15.55308551547336</v>
       </c>
       <c r="J42" t="n">
-        <v>18.82954545454545</v>
+        <v>19.19767441860465</v>
       </c>
       <c r="K42" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L42" t="n">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="M42" t="n">
-        <v>1.68014484007242</v>
+        <v>1.696547546941248</v>
       </c>
       <c r="N42" t="n">
         <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>5.266151685393258</v>
+        <v>5.288826423049895</v>
       </c>
     </row>
     <row r="43">
@@ -2596,34 +2596,34 @@
         <v>0.9997</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02077294684986814</v>
+        <v>0.02084343188519465</v>
       </c>
       <c r="G43" t="n">
-        <v>30.44117647058824</v>
+        <v>29.89855072463768</v>
       </c>
       <c r="H43" t="n">
-        <v>18.79227053140097</v>
+        <v>18.66214251090645</v>
       </c>
       <c r="I43" t="n">
-        <v>19.69337880079568</v>
+        <v>19.42427729421765</v>
       </c>
       <c r="J43" t="n">
-        <v>30.44117647058824</v>
+        <v>29.89855072463768</v>
       </c>
       <c r="K43" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L43" t="n">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="M43" t="n">
-        <v>1.706763285024155</v>
+        <v>1.705283567619971</v>
       </c>
       <c r="N43" t="n">
         <v>34</v>
       </c>
       <c r="O43" t="n">
-        <v>5.09375</v>
+        <v>5.091874668082847</v>
       </c>
     </row>
     <row r="44">
@@ -2689,43 +2689,43 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.996</v>
+        <v>0.9957</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02534854242668119</v>
+        <v>0.02464332033120192</v>
       </c>
       <c r="G45" t="n">
-        <v>27.20689655172414</v>
+        <v>29.65384615384615</v>
       </c>
       <c r="H45" t="n">
-        <v>24.7148288973384</v>
+        <v>25.03242542153048</v>
       </c>
       <c r="I45" t="n">
-        <v>20.76869017962502</v>
+        <v>21.87450863015066</v>
       </c>
       <c r="J45" t="n">
-        <v>27.20689655172414</v>
+        <v>29.65384615384615</v>
       </c>
       <c r="K45" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L45" t="n">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="M45" t="n">
-        <v>1.841571609632446</v>
+        <v>1.8715953307393</v>
       </c>
       <c r="N45" t="n">
         <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>5.580229226361031</v>
+        <v>5.65985401459854</v>
       </c>
     </row>
     <row r="46">
@@ -2740,43 +2740,43 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
         <v>0.9996</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005703422050521188</v>
+        <v>0.004748338079416744</v>
       </c>
       <c r="G46" t="n">
-        <v>116.8888888888889</v>
+        <v>110.8421052631579</v>
       </c>
       <c r="H46" t="n">
-        <v>18.58365019011407</v>
+        <v>18.37606837606838</v>
       </c>
       <c r="I46" t="n">
-        <v>54.18901563160119</v>
+        <v>51.68726945569051</v>
       </c>
       <c r="J46" t="n">
-        <v>116.8888888888889</v>
+        <v>110.8421052631579</v>
       </c>
       <c r="K46" t="n">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L46" t="n">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="M46" t="n">
-        <v>1.668726235741445</v>
+        <v>1.666191832858499</v>
       </c>
       <c r="N46" t="n">
         <v>22</v>
       </c>
       <c r="O46" t="n">
-        <v>4.889502762430939</v>
+        <v>4.892462311557789</v>
       </c>
     </row>
     <row r="47">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
@@ -2800,34 +2800,34 @@
         <v>0.999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02897415816055273</v>
+        <v>0.02850356292280003</v>
       </c>
       <c r="G47" t="n">
-        <v>21.28333333333333</v>
+        <v>21.40677966101695</v>
       </c>
       <c r="H47" t="n">
-        <v>23.17932654659358</v>
+        <v>23.35708630245447</v>
       </c>
       <c r="I47" t="n">
-        <v>17.78506395197077</v>
+        <v>17.90554638538857</v>
       </c>
       <c r="J47" t="n">
-        <v>21.28333333333333</v>
+        <v>21.40677966101695</v>
       </c>
       <c r="K47" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L47" t="n">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="M47" t="n">
-        <v>1.751761942051684</v>
+        <v>1.754552652414885</v>
       </c>
       <c r="N47" t="n">
         <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>5.323918799646955</v>
+        <v>5.360787824529991</v>
       </c>
     </row>
     <row r="48">
@@ -2842,43 +2842,43 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9972</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01958863857043228</v>
+        <v>0.02036857418004988</v>
       </c>
       <c r="G48" t="n">
-        <v>23.20454545454545</v>
+        <v>22.91111111111111</v>
       </c>
       <c r="H48" t="n">
-        <v>25.46523016650343</v>
+        <v>24.83026188166829</v>
       </c>
       <c r="I48" t="n">
-        <v>19.46791024841956</v>
+        <v>19.09654919711176</v>
       </c>
       <c r="J48" t="n">
-        <v>23.20454545454545</v>
+        <v>22.91111111111111</v>
       </c>
       <c r="K48" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L48" t="n">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="M48" t="n">
-        <v>1.827619980411361</v>
+        <v>1.819592628516004</v>
       </c>
       <c r="N48" t="n">
         <v>3</v>
       </c>
       <c r="O48" t="n">
-        <v>5.563333333333333</v>
+        <v>5.562775330396476</v>
       </c>
     </row>
     <row r="49">
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -2902,34 +2902,34 @@
         <v>0.9892</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02090592330852627</v>
+        <v>0.02360876893151978</v>
       </c>
       <c r="G49" t="n">
-        <v>35.875</v>
+        <v>31.21052631578947</v>
       </c>
       <c r="H49" t="n">
-        <v>25.08710801393728</v>
+        <v>24.11467116357504</v>
       </c>
       <c r="I49" t="n">
-        <v>24.38484320557491</v>
+        <v>22.1300789917458</v>
       </c>
       <c r="J49" t="n">
-        <v>35.875</v>
+        <v>31.21052631578947</v>
       </c>
       <c r="K49" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L49" t="n">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="M49" t="n">
-        <v>1.895470383275261</v>
+        <v>1.860033726812816</v>
       </c>
       <c r="N49" t="n">
         <v>4</v>
       </c>
       <c r="O49" t="n">
-        <v>5.657587548638133</v>
+        <v>5.634285714285714</v>
       </c>
     </row>
     <row r="50">
@@ -2969,43 +2969,43 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
         <v>27</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.994</v>
+        <v>-0.9893999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02467010899330458</v>
+        <v>0.02512849798679126</v>
       </c>
       <c r="G51" t="n">
-        <v>28.57377049180328</v>
+        <v>28.70491803278689</v>
       </c>
       <c r="H51" t="n">
-        <v>19.96557659208262</v>
+        <v>19.87435750999429</v>
       </c>
       <c r="I51" t="n">
-        <v>19.41573883355436</v>
+        <v>19.43171021711247</v>
       </c>
       <c r="J51" t="n">
-        <v>28.57377049180328</v>
+        <v>28.70491803278689</v>
       </c>
       <c r="K51" t="n">
         <v>348</v>
       </c>
       <c r="L51" t="n">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="M51" t="n">
-        <v>1.746414228341939</v>
+        <v>1.754997144488863</v>
       </c>
       <c r="N51" t="n">
         <v>4</v>
       </c>
       <c r="O51" t="n">
-        <v>5.274984086569065</v>
+        <v>5.308963763509218</v>
       </c>
     </row>
     <row r="52">
@@ -3023,40 +3023,40 @@
         <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9921</v>
+        <v>0.9948</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01848249025439446</v>
+        <v>0.01958863857043228</v>
       </c>
       <c r="G52" t="n">
-        <v>30.23529411764706</v>
+        <v>29.17142857142857</v>
       </c>
       <c r="H52" t="n">
-        <v>20.13618677042802</v>
+        <v>20.27424094025465</v>
       </c>
       <c r="I52" t="n">
-        <v>20.14859235523003</v>
+        <v>19.77826780467329</v>
       </c>
       <c r="J52" t="n">
-        <v>30.23529411764706</v>
+        <v>29.17142857142857</v>
       </c>
       <c r="K52" t="n">
         <v>207</v>
       </c>
       <c r="L52" t="n">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="M52" t="n">
-        <v>1.761673151750973</v>
+        <v>1.769833496571988</v>
       </c>
       <c r="N52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
-        <v>5.296976241900648</v>
+        <v>5.326797385620915</v>
       </c>
     </row>
     <row r="53">
@@ -3080,34 +3080,34 @@
         <v>0.9998</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03096614367012133</v>
+        <v>0.03104304634476695</v>
       </c>
       <c r="G53" t="n">
-        <v>20.87931034482759</v>
+        <v>20.82758620689655</v>
       </c>
       <c r="H53" t="n">
-        <v>17.54748142031379</v>
+        <v>17.54966887417219</v>
       </c>
       <c r="I53" t="n">
-        <v>15.37071670605655</v>
+        <v>15.3509020324275</v>
       </c>
       <c r="J53" t="n">
-        <v>20.87931034482759</v>
+        <v>20.82758620689655</v>
       </c>
       <c r="K53" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L53" t="n">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="M53" t="n">
-        <v>1.687448389760529</v>
+        <v>1.684188741721854</v>
       </c>
       <c r="N53" t="n">
         <v>17</v>
       </c>
       <c r="O53" t="n">
-        <v>5.131996268656716</v>
+        <v>5.120431115276476</v>
       </c>
     </row>
     <row r="54">
@@ -3128,37 +3128,37 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9995000000000001</v>
+        <v>0.9993</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02416918426569065</v>
+        <v>0.02436548220876601</v>
       </c>
       <c r="G54" t="n">
-        <v>20.26530612244898</v>
+        <v>20.10204081632653</v>
       </c>
       <c r="H54" t="n">
-        <v>20.64451158106747</v>
+        <v>21.6243654822335</v>
       </c>
       <c r="I54" t="n">
-        <v>16.36392708140658</v>
+        <v>16.69056251942402</v>
       </c>
       <c r="J54" t="n">
-        <v>20.26530612244898</v>
+        <v>20.10204081632653</v>
       </c>
       <c r="K54" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L54" t="n">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="M54" t="n">
-        <v>1.804632426988922</v>
+        <v>1.817258883248731</v>
       </c>
       <c r="N54" t="n">
         <v>6</v>
       </c>
       <c r="O54" t="n">
-        <v>5.47180667433832</v>
+        <v>5.461361014994233</v>
       </c>
     </row>
     <row r="55">
@@ -3173,43 +3173,43 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9962</v>
+        <v>0.9971</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02519685035402071</v>
+        <v>0.02283105019356005</v>
       </c>
       <c r="G55" t="n">
-        <v>26.45833333333333</v>
+        <v>29.86363636363636</v>
       </c>
       <c r="H55" t="n">
-        <v>17.79527559055118</v>
+        <v>17.04718417047184</v>
       </c>
       <c r="I55" t="n">
-        <v>17.70144356955381</v>
+        <v>18.76432821364328</v>
       </c>
       <c r="J55" t="n">
-        <v>26.45833333333333</v>
+        <v>29.86363636363636</v>
       </c>
       <c r="K55" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L55" t="n">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="M55" t="n">
-        <v>1.748031496062992</v>
+        <v>1.729071537290715</v>
       </c>
       <c r="N55" t="n">
         <v>3</v>
       </c>
       <c r="O55" t="n">
-        <v>5.401769911504425</v>
+        <v>5.341337907375643</v>
       </c>
     </row>
     <row r="56">
@@ -3224,43 +3224,43 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9984</v>
+        <v>0.9983</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02213279676583984</v>
+        <v>0.02093180282178811</v>
       </c>
       <c r="G56" t="n">
-        <v>26.625</v>
+        <v>27.42592592592593</v>
       </c>
       <c r="H56" t="n">
-        <v>18.57813547954393</v>
+        <v>19.17623227548954</v>
       </c>
       <c r="I56" t="n">
-        <v>18.08125419181757</v>
+        <v>18.64086328056619</v>
       </c>
       <c r="J56" t="n">
-        <v>26.625</v>
+        <v>27.42592592592593</v>
       </c>
       <c r="K56" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L56" t="n">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="M56" t="n">
-        <v>1.659289067739772</v>
+        <v>1.669817690749493</v>
       </c>
       <c r="N56" t="n">
         <v>6</v>
       </c>
       <c r="O56" t="n">
-        <v>5.046827794561934</v>
+        <v>5.079726651480637</v>
       </c>
     </row>
     <row r="57">
@@ -3278,40 +3278,40 @@
         <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
         <v>0.9984</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01791713323861463</v>
+        <v>0.01859956234288888</v>
       </c>
       <c r="G57" t="n">
-        <v>33.07407407407408</v>
+        <v>32.64285714285715</v>
       </c>
       <c r="H57" t="n">
-        <v>23.96416573348264</v>
+        <v>23.63238512035011</v>
       </c>
       <c r="I57" t="n">
-        <v>22.81529592302269</v>
+        <v>22.51009690528291</v>
       </c>
       <c r="J57" t="n">
-        <v>33.07407407407408</v>
+        <v>32.64285714285715</v>
       </c>
       <c r="K57" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L57" t="n">
-        <v>893</v>
+        <v>914</v>
       </c>
       <c r="M57" t="n">
-        <v>1.886898096304591</v>
+        <v>1.86980306345733</v>
       </c>
       <c r="N57" t="n">
         <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>5.691823899371069</v>
+        <v>5.663366336633663</v>
       </c>
     </row>
     <row r="58">
@@ -3332,37 +3332,37 @@
         <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.9984</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03091190103413926</v>
+        <v>0.03086419748323426</v>
       </c>
       <c r="G58" t="n">
-        <v>18.48571428571428</v>
+        <v>18.51428571428572</v>
       </c>
       <c r="H58" t="n">
-        <v>17.92890262751159</v>
+        <v>17.43827160493827</v>
       </c>
       <c r="I58" t="n">
-        <v>14.56584676529035</v>
+        <v>14.38102292768959</v>
       </c>
       <c r="J58" t="n">
-        <v>18.48571428571428</v>
+        <v>18.51428571428572</v>
       </c>
       <c r="K58" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L58" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M58" t="n">
-        <v>1.752704791344668</v>
+        <v>1.737654320987654</v>
       </c>
       <c r="N58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>5.455516014234876</v>
+        <v>5.423758865248227</v>
       </c>
     </row>
     <row r="59">
@@ -3377,43 +3377,43 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9564</v>
+        <v>0.9606</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02544529255611885</v>
+        <v>0.01975308637098003</v>
       </c>
       <c r="G59" t="n">
-        <v>21.83333333333333</v>
+        <v>23.82352941176471</v>
       </c>
       <c r="H59" t="n">
-        <v>27.48091603053435</v>
+        <v>24.69135802469136</v>
       </c>
       <c r="I59" t="n">
-        <v>19.72569974554708</v>
+        <v>19.40595497458243</v>
       </c>
       <c r="J59" t="n">
-        <v>21.83333333333333</v>
+        <v>23.82352941176471</v>
       </c>
       <c r="K59" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="M59" t="n">
-        <v>1.954198473282443</v>
+        <v>1.898765432098765</v>
       </c>
       <c r="N59" t="n">
         <v>6</v>
       </c>
       <c r="O59" t="n">
-        <v>5.916913946587537</v>
+        <v>5.792507204610951</v>
       </c>
     </row>
     <row r="60">
@@ -3428,43 +3428,43 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D60" t="n">
         <v>28</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2954</v>
+        <v>-0.9231</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04191616762881423</v>
+        <v>0.03885135131853771</v>
       </c>
       <c r="G60" t="n">
-        <v>18.265625</v>
+        <v>19.40983606557377</v>
       </c>
       <c r="H60" t="n">
-        <v>16.42429426860565</v>
+        <v>15.45608108108108</v>
       </c>
       <c r="I60" t="n">
-        <v>13.87596770744226</v>
+        <v>13.94636685866194</v>
       </c>
       <c r="J60" t="n">
-        <v>18.265625</v>
+        <v>19.40983606557377</v>
       </c>
       <c r="K60" t="n">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L60" t="n">
-        <v>1169</v>
+        <v>1184</v>
       </c>
       <c r="M60" t="n">
-        <v>1.623609923011121</v>
+        <v>1.608108108108108</v>
       </c>
       <c r="N60" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O60" t="n">
-        <v>5.184959349593496</v>
+        <v>5.167670682730924</v>
       </c>
     </row>
     <row r="61">
@@ -3482,40 +3482,40 @@
         <v>8</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9961</v>
+        <v>0.9952</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0262529832308998</v>
+        <v>0.02870813390261212</v>
       </c>
       <c r="G61" t="n">
-        <v>27.93333333333333</v>
+        <v>27.86666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>20.52505966587112</v>
+        <v>20.57416267942584</v>
       </c>
       <c r="I61" t="n">
-        <v>19.38335719968178</v>
+        <v>19.376331738437</v>
       </c>
       <c r="J61" t="n">
-        <v>27.93333333333333</v>
+        <v>27.86666666666667</v>
       </c>
       <c r="K61" t="n">
         <v>86</v>
       </c>
       <c r="L61" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M61" t="n">
-        <v>1.890214797136038</v>
+        <v>1.873205741626794</v>
       </c>
       <c r="N61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O61" t="n">
-        <v>5.705882352941177</v>
+        <v>5.617250673854447</v>
       </c>
     </row>
     <row r="62">
@@ -3530,43 +3530,43 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9993</v>
+        <v>0.9994</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02475570030960541</v>
+        <v>0.02340702209141286</v>
       </c>
       <c r="G62" t="n">
-        <v>23.984375</v>
+        <v>24.80645161290322</v>
       </c>
       <c r="H62" t="n">
-        <v>26.3843648208469</v>
+        <v>26.39791937581274</v>
       </c>
       <c r="I62" t="n">
-        <v>20.14749592833876</v>
+        <v>20.48174839548639</v>
       </c>
       <c r="J62" t="n">
-        <v>23.984375</v>
+        <v>24.80645161290322</v>
       </c>
       <c r="K62" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L62" t="n">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="M62" t="n">
-        <v>1.935504885993485</v>
+        <v>1.93628088426528</v>
       </c>
       <c r="N62" t="n">
         <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>5.904585798816568</v>
+        <v>5.923076923076923</v>
       </c>
     </row>
     <row r="63">
@@ -3587,37 +3587,37 @@
         <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9944</v>
+        <v>-0.9962</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02788339666934931</v>
+        <v>0.02686202682922829</v>
       </c>
       <c r="G63" t="n">
-        <v>32.875</v>
+        <v>34.125</v>
       </c>
       <c r="H63" t="n">
-        <v>17.61723700887199</v>
+        <v>18.55921855921856</v>
       </c>
       <c r="I63" t="n">
-        <v>20.1968948035488</v>
+        <v>21.07368742368743</v>
       </c>
       <c r="J63" t="n">
-        <v>32.875</v>
+        <v>34.125</v>
       </c>
       <c r="K63" t="n">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L63" t="n">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="M63" t="n">
-        <v>1.699619771863118</v>
+        <v>1.704517704517704</v>
       </c>
       <c r="N63" t="n">
         <v>14</v>
       </c>
       <c r="O63" t="n">
-        <v>5.331914893617022</v>
+        <v>5.372413793103449</v>
       </c>
     </row>
     <row r="64">
@@ -3638,37 +3638,37 @@
         <v>18</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9701</v>
+        <v>-0.8966</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02565982402810863</v>
+        <v>0.02567865001784398</v>
       </c>
       <c r="G64" t="n">
-        <v>23.92982456140351</v>
+        <v>23.91228070175439</v>
       </c>
       <c r="H64" t="n">
-        <v>18.03519061583578</v>
+        <v>17.60821716801174</v>
       </c>
       <c r="I64" t="n">
-        <v>16.78600607089572</v>
+        <v>16.60819914790645</v>
       </c>
       <c r="J64" t="n">
-        <v>23.92982456140351</v>
+        <v>23.91228070175439</v>
       </c>
       <c r="K64" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L64" t="n">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M64" t="n">
-        <v>1.701612903225806</v>
+        <v>1.69479090242113</v>
       </c>
       <c r="N64" t="n">
         <v>12</v>
       </c>
       <c r="O64" t="n">
-        <v>5.076060848678943</v>
+        <v>5.0648</v>
       </c>
     </row>
     <row r="65">
@@ -3683,43 +3683,43 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8151</v>
+        <v>0.9542</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02103337904845296</v>
+        <v>0.02159926469595622</v>
       </c>
       <c r="G65" t="n">
-        <v>27.68354430379747</v>
+        <v>27.2</v>
       </c>
       <c r="H65" t="n">
-        <v>22.7251943301326</v>
+        <v>22.74816176470588</v>
       </c>
       <c r="I65" t="n">
-        <v>20.16349545357203</v>
+        <v>19.97926470588235</v>
       </c>
       <c r="J65" t="n">
-        <v>27.68354430379747</v>
+        <v>27.2</v>
       </c>
       <c r="K65" t="n">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L65" t="n">
-        <v>2187</v>
+        <v>2176</v>
       </c>
       <c r="M65" t="n">
-        <v>1.762688614540466</v>
+        <v>1.767003676470588</v>
       </c>
       <c r="N65" t="n">
         <v>26</v>
       </c>
       <c r="O65" t="n">
-        <v>5.50236220472441</v>
+        <v>5.500526870389884</v>
       </c>
     </row>
     <row r="66">
@@ -3740,37 +3740,37 @@
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9993</v>
+        <v>0.9994</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02373042239025609</v>
+        <v>0.02368545711810258</v>
       </c>
       <c r="G66" t="n">
-        <v>28.09333333333333</v>
+        <v>28.14666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>15.9468438538206</v>
+        <v>16.05873993368072</v>
       </c>
       <c r="I66" t="n">
-        <v>17.61607087486157</v>
+        <v>17.68216264013896</v>
       </c>
       <c r="J66" t="n">
-        <v>28.09333333333333</v>
+        <v>28.14666666666667</v>
       </c>
       <c r="K66" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L66" t="n">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="M66" t="n">
-        <v>1.624110109159943</v>
+        <v>1.625769777356703</v>
       </c>
       <c r="N66" t="n">
         <v>26</v>
       </c>
       <c r="O66" t="n">
-        <v>4.900882200311365</v>
+        <v>4.898550724637682</v>
       </c>
     </row>
     <row r="67">
@@ -3785,43 +3785,43 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9988</v>
+        <v>0.9991</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02658160551484231</v>
+        <v>0.02711323762513916</v>
       </c>
       <c r="G67" t="n">
         <v>21.62068965517241</v>
       </c>
       <c r="H67" t="n">
-        <v>16.37426900584795</v>
+        <v>16.4274322169059</v>
       </c>
       <c r="I67" t="n">
-        <v>15.19798346440815</v>
+        <v>15.21924874883133</v>
       </c>
       <c r="J67" t="n">
         <v>21.62068965517241</v>
       </c>
       <c r="K67" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L67" t="n">
         <v>1881</v>
       </c>
       <c r="M67" t="n">
-        <v>1.616693248272196</v>
+        <v>1.620414673046252</v>
       </c>
       <c r="N67" t="n">
         <v>36</v>
       </c>
       <c r="O67" t="n">
-        <v>5.070293398533007</v>
+        <v>5.072560975609756</v>
       </c>
     </row>
     <row r="68">
@@ -3842,37 +3842,37 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>0.999</v>
+        <v>0.9988</v>
       </c>
       <c r="F68" t="n">
-        <v>0.03410981694333626</v>
+        <v>0.03433835843020238</v>
       </c>
       <c r="G68" t="n">
-        <v>17.94029850746269</v>
+        <v>17.55882352941176</v>
       </c>
       <c r="H68" t="n">
-        <v>16.30615640599002</v>
+        <v>16.33165829145729</v>
       </c>
       <c r="I68" t="n">
-        <v>13.69858196538108</v>
+        <v>13.55619272834762</v>
       </c>
       <c r="J68" t="n">
-        <v>17.94029850746269</v>
+        <v>17.55882352941176</v>
       </c>
       <c r="K68" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L68" t="n">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="M68" t="n">
-        <v>1.594009983361065</v>
+        <v>1.598827470686767</v>
       </c>
       <c r="N68" t="n">
         <v>3</v>
       </c>
       <c r="O68" t="n">
-        <v>4.821596244131455</v>
+        <v>4.837099811676083</v>
       </c>
     </row>
     <row r="69">
@@ -3896,34 +3896,34 @@
         <v>0.9996</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02192982454938058</v>
+        <v>0.02183406112345302</v>
       </c>
       <c r="G69" t="n">
-        <v>24.98630136986301</v>
+        <v>25.0958904109589</v>
       </c>
       <c r="H69" t="n">
-        <v>14.08991228070176</v>
+        <v>14.13755458515284</v>
       </c>
       <c r="I69" t="n">
-        <v>15.63048546022591</v>
+        <v>15.6933779984447</v>
       </c>
       <c r="J69" t="n">
-        <v>24.98630136986301</v>
+        <v>25.0958904109589</v>
       </c>
       <c r="K69" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L69" t="n">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="M69" t="n">
-        <v>1.531798245614035</v>
+        <v>1.530021834061135</v>
       </c>
       <c r="N69" t="n">
         <v>10</v>
       </c>
       <c r="O69" t="n">
-        <v>4.786700125470515</v>
+        <v>4.781113195747342</v>
       </c>
     </row>
     <row r="70">
@@ -3938,43 +3938,43 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9978</v>
+        <v>0.9972</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0231292516692119</v>
+        <v>0.02303523032109047</v>
       </c>
       <c r="G70" t="n">
-        <v>35</v>
+        <v>36.9</v>
       </c>
       <c r="H70" t="n">
-        <v>19.18367346938776</v>
+        <v>18.97018970189702</v>
       </c>
       <c r="I70" t="n">
-        <v>21.67346938775511</v>
+        <v>22.34807588075881</v>
       </c>
       <c r="J70" t="n">
-        <v>35</v>
+        <v>36.9</v>
       </c>
       <c r="K70" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L70" t="n">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="M70" t="n">
-        <v>1.642176870748299</v>
+        <v>1.630081300813008</v>
       </c>
       <c r="N70" t="n">
         <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>4.975646879756469</v>
+        <v>4.966463414634147</v>
       </c>
     </row>
     <row r="71">
@@ -3989,43 +3989,43 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D71" t="n">
         <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9996</v>
+        <v>0.9997</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02416918427786043</v>
+        <v>0.02461074835529345</v>
       </c>
       <c r="G71" t="n">
-        <v>27.2054794520548</v>
+        <v>26.90540540540541</v>
       </c>
       <c r="H71" t="n">
-        <v>20.94662638469285</v>
+        <v>20.89402310396785</v>
       </c>
       <c r="I71" t="n">
-        <v>19.26084233469906</v>
+        <v>19.1197714037493</v>
       </c>
       <c r="J71" t="n">
-        <v>27.2054794520548</v>
+        <v>26.90540540540541</v>
       </c>
       <c r="K71" t="n">
         <v>416</v>
       </c>
       <c r="L71" t="n">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="M71" t="n">
-        <v>1.756294058408862</v>
+        <v>1.752887995981919</v>
       </c>
       <c r="N71" t="n">
         <v>11</v>
       </c>
       <c r="O71" t="n">
-        <v>5.311540648095509</v>
+        <v>5.305209513023782</v>
       </c>
     </row>
     <row r="72">
@@ -4046,37 +4046,37 @@
         <v>31</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9872</v>
+        <v>-0.9627</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04741064912661513</v>
+        <v>0.04754937816565517</v>
       </c>
       <c r="G72" t="n">
-        <v>17.1375</v>
+        <v>17.0875</v>
       </c>
       <c r="H72" t="n">
-        <v>15.53610503282276</v>
+        <v>15.58156547183614</v>
       </c>
       <c r="I72" t="n">
-        <v>13.0694420131291</v>
+        <v>13.06762618873445</v>
       </c>
       <c r="J72" t="n">
-        <v>17.1375</v>
+        <v>17.0875</v>
       </c>
       <c r="K72" t="n">
         <v>213</v>
       </c>
       <c r="L72" t="n">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="M72" t="n">
-        <v>1.591539022611233</v>
+        <v>1.585954645208486</v>
       </c>
       <c r="N72" t="n">
         <v>19</v>
       </c>
       <c r="O72" t="n">
-        <v>5.046193327630453</v>
+        <v>4.997440273037543</v>
       </c>
     </row>
     <row r="73">
@@ -4091,43 +4091,43 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9992</v>
+        <v>0.9993</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0339213025550059</v>
+        <v>0.0333333333106576</v>
       </c>
       <c r="G73" t="n">
-        <v>17.97560975609756</v>
+        <v>18.14814814814815</v>
       </c>
       <c r="H73" t="n">
-        <v>14.31478968792402</v>
+        <v>14.69387755102041</v>
       </c>
       <c r="I73" t="n">
-        <v>12.91615977760863</v>
+        <v>13.13681027966742</v>
       </c>
       <c r="J73" t="n">
-        <v>17.97560975609756</v>
+        <v>18.14814814814815</v>
       </c>
       <c r="K73" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L73" t="n">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="M73" t="n">
-        <v>1.531207598371777</v>
+        <v>1.538095238095238</v>
       </c>
       <c r="N73" t="n">
         <v>7</v>
       </c>
       <c r="O73" t="n">
-        <v>4.797224363916731</v>
+        <v>4.824031007751938</v>
       </c>
     </row>
     <row r="74">
@@ -4142,43 +4142,43 @@
         </is>
       </c>
       <c r="C74" t="n">
+        <v>21</v>
+      </c>
+      <c r="D74" t="n">
         <v>22</v>
       </c>
-      <c r="D74" t="n">
-        <v>21</v>
-      </c>
       <c r="E74" t="n">
-        <v>0.9703000000000001</v>
+        <v>0.9736</v>
       </c>
       <c r="F74" t="n">
-        <v>0.02851458884050756</v>
+        <v>0.02870493990073101</v>
       </c>
       <c r="G74" t="n">
-        <v>30.16</v>
+        <v>30.57142857142857</v>
       </c>
       <c r="H74" t="n">
-        <v>16.11405835543767</v>
+        <v>16.4218958611482</v>
       </c>
       <c r="I74" t="n">
-        <v>18.50962334217507</v>
+        <v>18.79732977303071</v>
       </c>
       <c r="J74" t="n">
-        <v>30.16</v>
+        <v>30.57142857142857</v>
       </c>
       <c r="K74" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L74" t="n">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="M74" t="n">
-        <v>1.641246684350133</v>
+        <v>1.648865153538051</v>
       </c>
       <c r="N74" t="n">
         <v>6</v>
       </c>
       <c r="O74" t="n">
-        <v>5.127100073046019</v>
+        <v>5.161147902869757</v>
       </c>
     </row>
     <row r="75">
@@ -4193,43 +4193,43 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9989</v>
+        <v>0.9987</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02683843262112805</v>
+        <v>0.02738990331504302</v>
       </c>
       <c r="G75" t="n">
-        <v>22.19047619047619</v>
+        <v>21.91764705882353</v>
       </c>
       <c r="H75" t="n">
-        <v>20.28985507246377</v>
+        <v>19.97851772287862</v>
       </c>
       <c r="I75" t="n">
-        <v>16.99213250517598</v>
+        <v>16.75846591268086</v>
       </c>
       <c r="J75" t="n">
-        <v>22.17857142857143</v>
+        <v>21.90588235294118</v>
       </c>
       <c r="K75" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L75" t="n">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="M75" t="n">
-        <v>1.762211486849168</v>
+        <v>1.756176154672395</v>
       </c>
       <c r="N75" t="n">
         <v>15</v>
       </c>
       <c r="O75" t="n">
-        <v>5.383950617283951</v>
+        <v>5.36656346749226</v>
       </c>
     </row>
     <row r="76">
@@ -4244,43 +4244,43 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
         <v>35</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9882</v>
+        <v>-0.9727</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04781997183697611</v>
+        <v>0.04895104891681745</v>
       </c>
       <c r="G76" t="n">
-        <v>17.13253012048193</v>
+        <v>16.82352941176471</v>
       </c>
       <c r="H76" t="n">
-        <v>16.0337552742616</v>
+        <v>16.22377622377622</v>
       </c>
       <c r="I76" t="n">
-        <v>13.26651415789741</v>
+        <v>13.21892225421637</v>
       </c>
       <c r="J76" t="n">
-        <v>17.13253012048193</v>
+        <v>16.82352941176471</v>
       </c>
       <c r="K76" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L76" t="n">
-        <v>1422</v>
+        <v>1430</v>
       </c>
       <c r="M76" t="n">
-        <v>1.60056258790436</v>
+        <v>1.611888111888112</v>
       </c>
       <c r="N76" t="n">
         <v>21</v>
       </c>
       <c r="O76" t="n">
-        <v>5.026960784313726</v>
+        <v>5.047811993517018</v>
       </c>
     </row>
     <row r="77">
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
         <v>19</v>
@@ -4304,34 +4304,34 @@
         <v>0.9988</v>
       </c>
       <c r="F77" t="n">
-        <v>0.02481902790857341</v>
+        <v>0.02530991734229859</v>
       </c>
       <c r="G77" t="n">
-        <v>33.3448275862069</v>
+        <v>33.37931034482759</v>
       </c>
       <c r="H77" t="n">
-        <v>17.78697001034126</v>
+        <v>17.66528925619835</v>
       </c>
       <c r="I77" t="n">
-        <v>20.45271903861926</v>
+        <v>20.41783984041038</v>
       </c>
       <c r="J77" t="n">
-        <v>33.3448275862069</v>
+        <v>33.37931034482759</v>
       </c>
       <c r="K77" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L77" t="n">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="M77" t="n">
-        <v>1.643743536711479</v>
+        <v>1.637913223140496</v>
       </c>
       <c r="N77" t="n">
         <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>4.964792731402612</v>
+        <v>4.968127490039841</v>
       </c>
     </row>
     <row r="78">
@@ -4346,43 +4346,43 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D78" t="n">
         <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9973</v>
+        <v>0.9977</v>
       </c>
       <c r="F78" t="n">
-        <v>0.02073515549412332</v>
+        <v>0.01792452828497686</v>
       </c>
       <c r="G78" t="n">
-        <v>39.2962962962963</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="H78" t="n">
-        <v>18.56738925541942</v>
+        <v>18.86792452830189</v>
       </c>
       <c r="I78" t="n">
-        <v>23.14547422068629</v>
+        <v>25.21383647798742</v>
       </c>
       <c r="J78" t="n">
-        <v>39.2962962962963</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="K78" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L78" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M78" t="n">
-        <v>1.738925541941565</v>
+        <v>1.737735849056604</v>
       </c>
       <c r="N78" t="n">
         <v>3</v>
       </c>
       <c r="O78" t="n">
-        <v>5.415966386554622</v>
+        <v>5.413249211356467</v>
       </c>
     </row>
     <row r="79">
@@ -4397,43 +4397,43 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>0.997</v>
+        <v>0.9979</v>
       </c>
       <c r="F79" t="n">
-        <v>0.02059202057876961</v>
+        <v>0.02133160955311467</v>
       </c>
       <c r="G79" t="n">
-        <v>40.89473684210526</v>
+        <v>39.66666666666666</v>
       </c>
       <c r="H79" t="n">
-        <v>20.3989703989704</v>
+        <v>19.71557853910795</v>
       </c>
       <c r="I79" t="n">
-        <v>24.51748289643027</v>
+        <v>23.75289808230985</v>
       </c>
       <c r="J79" t="n">
-        <v>40.89473684210526</v>
+        <v>39.66666666666666</v>
       </c>
       <c r="K79" t="n">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L79" t="n">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="M79" t="n">
-        <v>1.798584298584299</v>
+        <v>1.794440853264383</v>
       </c>
       <c r="N79" t="n">
         <v>3</v>
       </c>
       <c r="O79" t="n">
-        <v>5.553068592057762</v>
+        <v>5.541757443718228</v>
       </c>
     </row>
     <row r="80">
@@ -4448,28 +4448,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
         <v>32</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8786</v>
+        <v>0.9585</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02496467262130727</v>
+        <v>0.02449364106241468</v>
       </c>
       <c r="G80" t="n">
-        <v>27.57142857142857</v>
+        <v>27.93421052631579</v>
       </c>
       <c r="H80" t="n">
         <v>19.92463495054169</v>
       </c>
       <c r="I80" t="n">
-        <v>18.9984254087881</v>
+        <v>19.14353819074299</v>
       </c>
       <c r="J80" t="n">
-        <v>27.57142857142857</v>
+        <v>27.93421052631579</v>
       </c>
       <c r="K80" t="n">
         <v>423</v>
@@ -4478,13 +4478,13 @@
         <v>2123</v>
       </c>
       <c r="M80" t="n">
-        <v>1.689590202543571</v>
+        <v>1.694300518134715</v>
       </c>
       <c r="N80" t="n">
         <v>12</v>
       </c>
       <c r="O80" t="n">
-        <v>5.282968499733048</v>
+        <v>5.284648187633262</v>
       </c>
     </row>
     <row r="81">
@@ -4499,43 +4499,43 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" t="n">
         <v>75</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.9979</v>
       </c>
       <c r="F81" t="n">
-        <v>0.03719599426867048</v>
+        <v>0.03704588909248425</v>
       </c>
       <c r="G81" t="n">
-        <v>20.86567164179105</v>
+        <v>20.92</v>
       </c>
       <c r="H81" t="n">
-        <v>15.3314258464473</v>
+        <v>15.36806883365201</v>
       </c>
       <c r="I81" t="n">
-        <v>14.47883899529534</v>
+        <v>14.5152275334608</v>
       </c>
       <c r="J81" t="n">
-        <v>20.86567164179105</v>
+        <v>20.92</v>
       </c>
       <c r="K81" t="n">
         <v>643</v>
       </c>
       <c r="L81" t="n">
-        <v>4194</v>
+        <v>4184</v>
       </c>
       <c r="M81" t="n">
-        <v>1.588698140200286</v>
+        <v>1.587476099426386</v>
       </c>
       <c r="N81" t="n">
         <v>4</v>
       </c>
       <c r="O81" t="n">
-        <v>5.053048947224501</v>
+        <v>5.051000822593913</v>
       </c>
     </row>
     <row r="82">
@@ -4550,43 +4550,43 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
         <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9952</v>
+        <v>0.9951</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0240518038741666</v>
+        <v>0.02266419980450315</v>
       </c>
       <c r="G82" t="n">
-        <v>23.5</v>
+        <v>24.02222222222222</v>
       </c>
       <c r="H82" t="n">
-        <v>19.88899167437558</v>
+        <v>20.21276595744681</v>
       </c>
       <c r="I82" t="n">
-        <v>17.35559666975023</v>
+        <v>17.69399527186761</v>
       </c>
       <c r="J82" t="n">
-        <v>23.5</v>
+        <v>24.02222222222222</v>
       </c>
       <c r="K82" t="n">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L82" t="n">
         <v>2162</v>
       </c>
       <c r="M82" t="n">
-        <v>1.712765957446809</v>
+        <v>1.72109158186864</v>
       </c>
       <c r="N82" t="n">
         <v>20</v>
       </c>
       <c r="O82" t="n">
-        <v>5.167603474706183</v>
+        <v>5.172625127681307</v>
       </c>
     </row>
     <row r="83">
@@ -4607,37 +4607,37 @@
         <v>25</v>
       </c>
       <c r="E83" t="n">
-        <v>0.984</v>
+        <v>0.9807</v>
       </c>
       <c r="F83" t="n">
-        <v>0.02731092435540393</v>
+        <v>0.02733964246722416</v>
       </c>
       <c r="G83" t="n">
-        <v>28.84848484848485</v>
+        <v>28.81818181818182</v>
       </c>
       <c r="H83" t="n">
-        <v>24.47478991596639</v>
+        <v>24.71083070452156</v>
       </c>
       <c r="I83" t="n">
-        <v>21.32930990578049</v>
+        <v>21.41160500908135</v>
       </c>
       <c r="J83" t="n">
-        <v>28.84848484848485</v>
+        <v>28.81818181818182</v>
       </c>
       <c r="K83" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L83" t="n">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="M83" t="n">
-        <v>1.844012605042017</v>
+        <v>1.854889589905363</v>
       </c>
       <c r="N83" t="n">
         <v>2</v>
       </c>
       <c r="O83" t="n">
-        <v>5.677323860272351</v>
+        <v>5.701837581505631</v>
       </c>
     </row>
     <row r="84">
@@ -4754,43 +4754,43 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
         <v>20</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9988</v>
+        <v>0.9992</v>
       </c>
       <c r="F86" t="n">
-        <v>0.02854594111126408</v>
+        <v>0.02905677245013108</v>
       </c>
       <c r="G86" t="n">
-        <v>17.65354330708661</v>
+        <v>17.61417322834646</v>
       </c>
       <c r="H86" t="n">
-        <v>18.10883140053524</v>
+        <v>18.41752346893161</v>
       </c>
       <c r="I86" t="n">
-        <v>14.30494988304874</v>
+        <v>14.41267867891123</v>
       </c>
       <c r="J86" t="n">
-        <v>17.65354330708661</v>
+        <v>17.61417322834646</v>
       </c>
       <c r="K86" t="n">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L86" t="n">
-        <v>2242</v>
+        <v>2237</v>
       </c>
       <c r="M86" t="n">
-        <v>1.626226583407672</v>
+        <v>1.639248994188645</v>
       </c>
       <c r="N86" t="n">
         <v>8</v>
       </c>
       <c r="O86" t="n">
-        <v>5.048659384309831</v>
+        <v>5.070541480377546</v>
       </c>
     </row>
     <row r="87">
@@ -4805,7 +4805,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -4814,34 +4814,34 @@
         <v>0.9998</v>
       </c>
       <c r="F87" t="n">
-        <v>0.03087248320766332</v>
+        <v>0.03041144900249936</v>
       </c>
       <c r="G87" t="n">
-        <v>22.57575757575757</v>
+        <v>22.81632653061224</v>
       </c>
       <c r="H87" t="n">
-        <v>18.61297539149888</v>
+        <v>18.55992844364937</v>
       </c>
       <c r="I87" t="n">
-        <v>16.47549318690258</v>
+        <v>16.55050198970465</v>
       </c>
       <c r="J87" t="n">
-        <v>22.57575757575757</v>
+        <v>22.81632653061224</v>
       </c>
       <c r="K87" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L87" t="n">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="M87" t="n">
-        <v>1.665324384787472</v>
+        <v>1.67128801431127</v>
       </c>
       <c r="N87" t="n">
         <v>8</v>
       </c>
       <c r="O87" t="n">
-        <v>5.244593202883626</v>
+        <v>5.246919917864476</v>
       </c>
     </row>
     <row r="88">
@@ -4856,43 +4856,43 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" t="n">
         <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9952</v>
+        <v>0.9955000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>0.02663786895130463</v>
+        <v>0.02589928055690699</v>
       </c>
       <c r="G88" t="n">
-        <v>27.78</v>
+        <v>28.36734693877551</v>
       </c>
       <c r="H88" t="n">
-        <v>18.57451403887689</v>
+        <v>19.06474820143885</v>
       </c>
       <c r="I88" t="n">
-        <v>18.54180561555076</v>
+        <v>18.97283805608575</v>
       </c>
       <c r="J88" t="n">
-        <v>27.78</v>
+        <v>28.36734693877551</v>
       </c>
       <c r="K88" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L88" t="n">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="M88" t="n">
-        <v>1.688984881209503</v>
+        <v>1.69568345323741</v>
       </c>
       <c r="N88" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O88" t="n">
-        <v>5.26537216828479</v>
+        <v>5.280064568200161</v>
       </c>
     </row>
     <row r="89">
@@ -4913,37 +4913,37 @@
         <v>21</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8517</v>
+        <v>0.9046999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01939058170849927</v>
+        <v>0.01912568305139996</v>
       </c>
       <c r="G89" t="n">
-        <v>32.81818181818182</v>
+        <v>33.78461538461539</v>
       </c>
       <c r="H89" t="n">
-        <v>21.60664819944598</v>
+        <v>21.5391621129326</v>
       </c>
       <c r="I89" t="n">
-        <v>21.76993200705112</v>
+        <v>22.1295109990192</v>
       </c>
       <c r="J89" t="n">
-        <v>32.81818181818182</v>
+        <v>33.78461538461539</v>
       </c>
       <c r="K89" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L89" t="n">
-        <v>2166</v>
+        <v>2196</v>
       </c>
       <c r="M89" t="n">
-        <v>1.797322253000923</v>
+        <v>1.795992714025501</v>
       </c>
       <c r="N89" t="n">
         <v>3</v>
       </c>
       <c r="O89" t="n">
-        <v>5.452061855670103</v>
+        <v>5.465068842427333</v>
       </c>
     </row>
     <row r="90">
@@ -4961,40 +4961,40 @@
         <v>16</v>
       </c>
       <c r="D90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.9542</v>
+        <v>-0.9695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03016241296971197</v>
+        <v>0.03069838831105265</v>
       </c>
       <c r="G90" t="n">
-        <v>23.94444444444444</v>
+        <v>23.69090909090909</v>
       </c>
       <c r="H90" t="n">
-        <v>17.86542923433875</v>
+        <v>18.2655410590944</v>
       </c>
       <c r="I90" t="n">
-        <v>16.72394947151328</v>
+        <v>16.7825800600014</v>
       </c>
       <c r="J90" t="n">
-        <v>23.94444444444444</v>
+        <v>23.69090909090909</v>
       </c>
       <c r="K90" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L90" t="n">
-        <v>1293</v>
+        <v>1303</v>
       </c>
       <c r="M90" t="n">
-        <v>1.696829079659706</v>
+        <v>1.712202609363008</v>
       </c>
       <c r="N90" t="n">
         <v>6</v>
       </c>
       <c r="O90" t="n">
-        <v>5.220767888307155</v>
+        <v>5.267129228100607</v>
       </c>
     </row>
     <row r="91">
@@ -5009,43 +5009,43 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" t="n">
         <v>21</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9875</v>
+        <v>0.9752</v>
       </c>
       <c r="F91" t="n">
-        <v>0.03269230767135108</v>
+        <v>0.03225806449531737</v>
       </c>
       <c r="G91" t="n">
-        <v>20.25974025974026</v>
+        <v>20.39473684210526</v>
       </c>
       <c r="H91" t="n">
-        <v>18.46153846153846</v>
+        <v>18.25806451612903</v>
       </c>
       <c r="I91" t="n">
-        <v>15.48851148851149</v>
+        <v>15.46112054329372</v>
       </c>
       <c r="J91" t="n">
-        <v>20.25974025974026</v>
+        <v>20.39473684210526</v>
       </c>
       <c r="K91" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L91" t="n">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="M91" t="n">
-        <v>1.641666666666667</v>
+        <v>1.640645161290323</v>
       </c>
       <c r="N91" t="n">
         <v>46</v>
       </c>
       <c r="O91" t="n">
-        <v>5.012125534950071</v>
+        <v>4.993534482758621</v>
       </c>
     </row>
     <row r="92">
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -5069,34 +5069,34 @@
         <v>0.9984</v>
       </c>
       <c r="F92" t="n">
-        <v>0.02335766421652725</v>
+        <v>0.02211126959906471</v>
       </c>
       <c r="G92" t="n">
-        <v>32.61904761904762</v>
+        <v>34.19512195121951</v>
       </c>
       <c r="H92" t="n">
-        <v>20.43795620437956</v>
+        <v>20.47075606276747</v>
       </c>
       <c r="I92" t="n">
-        <v>21.22280152937087</v>
+        <v>21.8663512055948</v>
       </c>
       <c r="J92" t="n">
-        <v>32.61904761904762</v>
+        <v>34.19512195121951</v>
       </c>
       <c r="K92" t="n">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L92" t="n">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="M92" t="n">
-        <v>1.71970802919708</v>
+        <v>1.718972895863053</v>
       </c>
       <c r="N92" t="n">
         <v>16</v>
       </c>
       <c r="O92" t="n">
-        <v>5.107366771159874</v>
+        <v>5.102839600920952</v>
       </c>
     </row>
     <row r="93">
@@ -5168,37 +5168,37 @@
         <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9933999999999999</v>
+        <v>0.9902</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02205882347534602</v>
+        <v>0.02272727266988063</v>
       </c>
       <c r="G94" t="n">
-        <v>31.38461538461538</v>
+        <v>30.46153846153846</v>
       </c>
       <c r="H94" t="n">
-        <v>16.17647058823529</v>
+        <v>16.16161616161616</v>
       </c>
       <c r="I94" t="n">
-        <v>19.02443438914027</v>
+        <v>18.64926184926185</v>
       </c>
       <c r="J94" t="n">
-        <v>31.38461538461538</v>
+        <v>30.46153846153846</v>
       </c>
       <c r="K94" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M94" t="n">
-        <v>1.654411764705882</v>
+        <v>1.651515151515152</v>
       </c>
       <c r="N94" t="n">
         <v>5</v>
       </c>
       <c r="O94" t="n">
-        <v>5.160112359550562</v>
+        <v>5.065340909090909</v>
       </c>
     </row>
     <row r="95">
@@ -5219,37 +5219,37 @@
         <v>24</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.9936</v>
+        <v>-0.9921</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03462603875718418</v>
+        <v>0.03450655622187263</v>
       </c>
       <c r="G95" t="n">
-        <v>21.87878787878788</v>
+        <v>22.29230769230769</v>
       </c>
       <c r="H95" t="n">
-        <v>17.86703601108033</v>
+        <v>18.15044858523119</v>
       </c>
       <c r="I95" t="n">
-        <v>15.89832955594728</v>
+        <v>16.17710251101555</v>
       </c>
       <c r="J95" t="n">
-        <v>21.87878787878788</v>
+        <v>22.29230769230769</v>
       </c>
       <c r="K95" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L95" t="n">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="M95" t="n">
-        <v>1.637811634349031</v>
+        <v>1.641131815044859</v>
       </c>
       <c r="N95" t="n">
         <v>26</v>
       </c>
       <c r="O95" t="n">
-        <v>4.996108949416342</v>
+        <v>5.028059236165237</v>
       </c>
     </row>
     <row r="96">
@@ -5270,37 +5270,37 @@
         <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8272</v>
+        <v>0.3296</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02426160334993502</v>
+        <v>0.02454642473367511</v>
       </c>
       <c r="G96" t="n">
-        <v>24.94736842105263</v>
+        <v>24.65789473684211</v>
       </c>
       <c r="H96" t="n">
-        <v>19.62025316455696</v>
+        <v>19.85058697972252</v>
       </c>
       <c r="I96" t="n">
-        <v>17.82704863424383</v>
+        <v>17.80339268662585</v>
       </c>
       <c r="J96" t="n">
-        <v>24.94736842105263</v>
+        <v>24.65789473684211</v>
       </c>
       <c r="K96" t="n">
         <v>186</v>
       </c>
       <c r="L96" t="n">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="M96" t="n">
-        <v>1.687763713080169</v>
+        <v>1.690501600853789</v>
       </c>
       <c r="N96" t="n">
         <v>9</v>
       </c>
       <c r="O96" t="n">
-        <v>5.230769230769231</v>
+        <v>5.256127450980392</v>
       </c>
     </row>
     <row r="97">
@@ -5315,43 +5315,43 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D97" t="n">
         <v>28</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.9978</v>
+        <v>-0.9983</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03244005639461209</v>
+        <v>0.0310130943962694</v>
       </c>
       <c r="G97" t="n">
-        <v>25.78181818181818</v>
+        <v>26.87037037037037</v>
       </c>
       <c r="H97" t="n">
-        <v>22.70803949224259</v>
+        <v>22.19159200551344</v>
       </c>
       <c r="I97" t="n">
-        <v>19.39594306962431</v>
+        <v>19.62478495035353</v>
       </c>
       <c r="J97" t="n">
-        <v>25.78181818181818</v>
+        <v>26.87037037037037</v>
       </c>
       <c r="K97" t="n">
         <v>322</v>
       </c>
       <c r="L97" t="n">
-        <v>1418</v>
+        <v>1451</v>
       </c>
       <c r="M97" t="n">
-        <v>1.794076163610719</v>
+        <v>1.779462439696761</v>
       </c>
       <c r="N97" t="n">
         <v>5</v>
       </c>
       <c r="O97" t="n">
-        <v>5.412172573189522</v>
+        <v>5.391534391534392</v>
       </c>
     </row>
     <row r="98">
@@ -5372,37 +5372,37 @@
         <v>17</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9288999999999999</v>
+        <v>0.9594</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02322308232004005</v>
+        <v>0.02337110479931225</v>
       </c>
       <c r="G98" t="n">
-        <v>33.04651162790697</v>
+        <v>33.61904761904762</v>
       </c>
       <c r="H98" t="n">
-        <v>16.3265306122449</v>
+        <v>16.21813031161473</v>
       </c>
       <c r="I98" t="n">
-        <v>19.74921689606075</v>
+        <v>19.93487117226494</v>
       </c>
       <c r="J98" t="n">
-        <v>33.04651162790697</v>
+        <v>33.61904761904762</v>
       </c>
       <c r="K98" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L98" t="n">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="M98" t="n">
-        <v>1.602392681210415</v>
+        <v>1.595609065155807</v>
       </c>
       <c r="N98" t="n">
         <v>15</v>
       </c>
       <c r="O98" t="n">
-        <v>4.956692913385827</v>
+        <v>4.948535233570863</v>
       </c>
     </row>
     <row r="99">
@@ -5423,37 +5423,37 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01572327041552945</v>
+        <v>0.01540832046932462</v>
       </c>
       <c r="G99" t="n">
-        <v>37.41176470588236</v>
+        <v>38.1764705882353</v>
       </c>
       <c r="H99" t="n">
-        <v>21.54088050314466</v>
+        <v>21.26348228043143</v>
       </c>
       <c r="I99" t="n">
-        <v>23.58105808361081</v>
+        <v>23.77598114746669</v>
       </c>
       <c r="J99" t="n">
-        <v>37.41176470588236</v>
+        <v>38.1764705882353</v>
       </c>
       <c r="K99" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L99" t="n">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="M99" t="n">
-        <v>1.814465408805031</v>
+        <v>1.795069337442219</v>
       </c>
       <c r="N99" t="n">
         <v>3</v>
       </c>
       <c r="O99" t="n">
-        <v>5.659010600706714</v>
+        <v>5.646853146853147</v>
       </c>
     </row>
     <row r="100">
